--- a/BackTest/2020-01-24 BackTest QTUM.xlsx
+++ b/BackTest/2020-01-24 BackTest QTUM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>8613.104300000003</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>8369.732800000003</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>8500.724800000004</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>8391.480700000004</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>8573.027500000004</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>8514.097500000003</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>8772.162500000004</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>8711.886501760004</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>8523.160301760005</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>8523.160301760005</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>4738.078301760004</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>4934.478301760004</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>5051.478301760004</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>5260.060001760004</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>5165.242601760004</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>5225.242601760004</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>5228.556001760004</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>7355.559801760004</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>7355.559801760004</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>6807.589501760004</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>7005.183001760004</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>7005.183001760004</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>6992.487701760004</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>6785.627001760004</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>9232.484701760004</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>9232.484701760004</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>9210.732401760004</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>8629.068001760004</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>8550.347901760004</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>8550.347901760004</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>8379.897601760003</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>7752.607801760003</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>7752.607801760003</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>7762.254701760003</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>6518.903701760002</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>6715.388901760002</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>6700.263801760002</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>6698.000301760002</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>6766.774901760002</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>6750.988501760002</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>5965.743001760002</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>6021.920801760002</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>6158.107401760002</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>6158.107401760002</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>6158.107401760002</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>6877.489401760002</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>8063.725601760002</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>8285.181309120002</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>9970.146309120002</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>10454.58300912</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>10196.21410912</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>10397.21400912</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>10902.11560912</v>
       </c>
       <c r="H65" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>13017.27105382</v>
       </c>
       <c r="H66" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>13470.57955382</v>
       </c>
       <c r="H67" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>11899.80445382</v>
       </c>
       <c r="H68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>11899.80445382</v>
       </c>
       <c r="H69" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>11899.80445382</v>
       </c>
       <c r="H70" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>12040.66605382</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>12704.80335382</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>14368.06385382</v>
       </c>
       <c r="H76" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>14266.06385382</v>
       </c>
       <c r="H77" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>14066.42745382</v>
       </c>
       <c r="H78" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>14021.99315382</v>
       </c>
       <c r="H79" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>14561.28655382</v>
       </c>
       <c r="H80" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>14561.28655382</v>
       </c>
       <c r="H81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>14561.28655382</v>
       </c>
       <c r="H82" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>14761.28655382</v>
       </c>
       <c r="H83" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>14761.28655382</v>
       </c>
       <c r="H84" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>14761.28655382</v>
       </c>
       <c r="H85" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>15634.77485382</v>
       </c>
       <c r="H86" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>15634.77485382</v>
       </c>
       <c r="H87" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>15208.77485382</v>
       </c>
       <c r="H88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>15208.77485382</v>
       </c>
       <c r="H89" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>15208.77485382</v>
       </c>
       <c r="H90" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>15208.77485382</v>
       </c>
       <c r="H91" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>15149.78075382</v>
       </c>
       <c r="H92" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>15130.81665382</v>
       </c>
       <c r="H93" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>15130.81665382</v>
       </c>
       <c r="H94" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>14869.81665382</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>14429.30215382</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>14576.76705382</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>14695.48435382</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>14694.48435382</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>16710.40935382</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>14704.55035382</v>
       </c>
       <c r="H105" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>14478.63555382</v>
       </c>
       <c r="H106" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>14335.78125382</v>
       </c>
       <c r="H107" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>14455.31415382</v>
       </c>
       <c r="H108" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>14432.31415382</v>
       </c>
       <c r="H109" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>14472.81415382</v>
       </c>
       <c r="H110" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>14586.51415382</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>14586.51415382</v>
       </c>
       <c r="H112" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>14586.51415382</v>
       </c>
       <c r="H113" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>14586.51415382</v>
       </c>
       <c r="H114" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>14216.61105382</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>14216.61105382</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>14662.4725151</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>15406.0077151</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>12899.4543151</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>12906.3914151</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>12823.6914151</v>
       </c>
       <c r="H121" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>13221.7578151</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>16459.0171151</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>15751.3336151</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>15828.8336151</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>15952.8655151</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>13238.9862151</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>13208.8962151</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>13748.8051151</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>15827.7252151</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>15515.2735151</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>15515.2735151</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>15691.7120151</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>15580.14772435</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>16118.50399405</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>16362.09529405</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>15901.30189405001</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>15376.00689405001</v>
       </c>
       <c r="H147" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>15576.00689405001</v>
       </c>
       <c r="H148" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>15612.08959405001</v>
       </c>
       <c r="H151" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>15619.56539405001</v>
       </c>
       <c r="H152" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>15582.80039405001</v>
       </c>
       <c r="H153" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>16022.49239405001</v>
       </c>
       <c r="H154" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>16022.49239405001</v>
       </c>
       <c r="H155" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>14761.49519405001</v>
       </c>
       <c r="H156" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>11336.53489405001</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>10534.96189405001</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>10501.13369405001</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>8855.756994050007</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>9318.880894050008</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>7808.680894050008</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>7858.380794050007</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>5547.514794050007</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>5747.258894050007</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>6926.322094050007</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>8583.646394050007</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>7249.646394050007</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>7249.646394050007</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>7084.827994050007</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>7252.796494050007</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>5652.261994050007</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>5875.868094050007</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>5673.173994050007</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>6758.110294050008</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>6773.157894050008</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>4183.170694050008</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>4183.170694050008</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>3783.823394050008</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>3762.865094050008</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>3662.865094050008</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>3662.865094050008</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>3662.865094050008</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>6919.713694050008</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>6919.713694050008</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -18436,11 +18436,17 @@
         <v>-52779.28768409999</v>
       </c>
       <c r="H547" t="n">
-        <v>0</v>
-      </c>
-      <c r="I547" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I547" t="n">
+        <v>2166</v>
+      </c>
       <c r="J547" t="inlineStr"/>
-      <c r="K547" t="inlineStr"/>
+      <c r="K547" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L547" t="n">
         <v>1</v>
       </c>
@@ -18469,11 +18475,17 @@
         <v>-52779.28768409999</v>
       </c>
       <c r="H548" t="n">
-        <v>0</v>
-      </c>
-      <c r="I548" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I548" t="n">
+        <v>2166</v>
+      </c>
       <c r="J548" t="inlineStr"/>
-      <c r="K548" t="inlineStr"/>
+      <c r="K548" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L548" t="n">
         <v>1</v>
       </c>
@@ -18502,15 +18514,17 @@
         <v>-52751.57038409999</v>
       </c>
       <c r="H549" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I549" t="n">
         <v>2166</v>
       </c>
-      <c r="J549" t="n">
-        <v>2166</v>
-      </c>
-      <c r="K549" t="inlineStr"/>
+      <c r="J549" t="inlineStr"/>
+      <c r="K549" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L549" t="n">
         <v>1</v>
       </c>
@@ -18539,17 +18553,15 @@
         <v>-53251.57038409999</v>
       </c>
       <c r="H550" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I550" t="n">
         <v>2168</v>
       </c>
-      <c r="J550" t="n">
-        <v>2166</v>
-      </c>
+      <c r="J550" t="inlineStr"/>
       <c r="K550" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L550" t="n">
@@ -18580,17 +18592,15 @@
         <v>-53251.57038409999</v>
       </c>
       <c r="H551" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I551" t="n">
         <v>2167</v>
       </c>
-      <c r="J551" t="n">
-        <v>2166</v>
-      </c>
+      <c r="J551" t="inlineStr"/>
       <c r="K551" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L551" t="n">
@@ -18621,14 +18631,12 @@
         <v>-54785.35618409999</v>
       </c>
       <c r="H552" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I552" t="n">
         <v>2167</v>
       </c>
-      <c r="J552" t="n">
-        <v>2166</v>
-      </c>
+      <c r="J552" t="inlineStr"/>
       <c r="K552" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18662,14 +18670,12 @@
         <v>-54785.35618409999</v>
       </c>
       <c r="H553" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I553" t="n">
         <v>2163</v>
       </c>
-      <c r="J553" t="n">
-        <v>2166</v>
-      </c>
+      <c r="J553" t="inlineStr"/>
       <c r="K553" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18703,14 +18709,12 @@
         <v>-54764.35618409999</v>
       </c>
       <c r="H554" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I554" t="n">
         <v>2163</v>
       </c>
-      <c r="J554" t="n">
-        <v>2166</v>
-      </c>
+      <c r="J554" t="inlineStr"/>
       <c r="K554" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18744,14 +18748,12 @@
         <v>-54747.53118409999</v>
       </c>
       <c r="H555" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I555" t="n">
         <v>2165</v>
       </c>
-      <c r="J555" t="n">
-        <v>2166</v>
-      </c>
+      <c r="J555" t="inlineStr"/>
       <c r="K555" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18785,14 +18787,12 @@
         <v>-54677.64118409999</v>
       </c>
       <c r="H556" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I556" t="n">
         <v>2168</v>
       </c>
-      <c r="J556" t="n">
-        <v>2166</v>
-      </c>
+      <c r="J556" t="inlineStr"/>
       <c r="K556" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18826,14 +18826,12 @@
         <v>-54704.66248409999</v>
       </c>
       <c r="H557" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I557" t="n">
         <v>2169</v>
       </c>
-      <c r="J557" t="n">
-        <v>2166</v>
-      </c>
+      <c r="J557" t="inlineStr"/>
       <c r="K557" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18867,14 +18865,12 @@
         <v>-54579.2107841</v>
       </c>
       <c r="H558" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I558" t="n">
         <v>2164</v>
       </c>
-      <c r="J558" t="n">
-        <v>2166</v>
-      </c>
+      <c r="J558" t="inlineStr"/>
       <c r="K558" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18911,9 +18907,7 @@
         <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
-      <c r="J559" t="n">
-        <v>2166</v>
-      </c>
+      <c r="J559" t="inlineStr"/>
       <c r="K559" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18950,9 +18944,7 @@
         <v>0</v>
       </c>
       <c r="I560" t="inlineStr"/>
-      <c r="J560" t="n">
-        <v>2166</v>
-      </c>
+      <c r="J560" t="inlineStr"/>
       <c r="K560" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18989,9 +18981,7 @@
         <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
-      <c r="J561" t="n">
-        <v>2166</v>
-      </c>
+      <c r="J561" t="inlineStr"/>
       <c r="K561" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19028,9 +19018,7 @@
         <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
-      <c r="J562" t="n">
-        <v>2166</v>
-      </c>
+      <c r="J562" t="inlineStr"/>
       <c r="K562" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19042,6 +19030,6 @@
       <c r="M562" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-24 BackTest QTUM.xlsx
+++ b/BackTest/2020-01-24 BackTest QTUM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>8613.104300000003</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>8369.732800000003</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>8500.724800000004</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>8391.480700000004</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>8573.027500000004</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>8514.097500000003</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>8772.162500000004</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>8711.886501760004</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>8523.160301760005</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>8523.160301760005</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>4738.078301760004</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>4934.478301760004</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>5051.478301760004</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>5260.060001760004</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>5165.242601760004</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>7005.183001760004</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>9232.484701760004</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>9232.484701760004</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>9210.732401760004</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>8629.068001760004</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>8550.347901760004</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>8550.347901760004</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>8379.897601760003</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>7752.607801760003</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>7752.607801760003</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>7762.254701760003</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>6518.903701760002</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>6715.388901760002</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>6700.263801760002</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>6698.000301760002</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>6766.774901760002</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>6750.988501760002</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>5965.743001760002</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>6021.920801760002</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>6158.107401760002</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>6158.107401760002</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>6158.107401760002</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>6877.489401760002</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>8063.725601760002</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>8285.181309120002</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>9970.146309120002</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>10454.58300912</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>10196.21410912</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>10397.21400912</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>11899.80445382</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>11899.80445382</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>12040.66605382</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>12704.80335382</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>14066.42745382</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>14561.28655382</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>14561.28655382</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>14561.28655382</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>14761.28655382</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>14761.28655382</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>14761.28655382</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>15634.77485382</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>15634.77485382</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>15208.77485382</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>15208.77485382</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>15208.77485382</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>15208.77485382</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>15149.78075382</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>15130.81665382</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>15130.81665382</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>14869.81665382</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>14429.30215382</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>14576.76705382</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>14695.48435382</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>14694.48435382</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>16710.40935382</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>14432.31415382</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>14472.81415382</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>14586.51415382</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>14586.51415382</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>14586.51415382</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>14586.51415382</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>14216.61105382</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>14216.61105382</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>14662.4725151</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>15406.0077151</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>12899.4543151</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>12906.3914151</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>12823.6914151</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>13221.7578151</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>16459.0171151</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>15751.3336151</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>15828.8336151</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>15952.8655151</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>13238.9862151</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>13208.8962151</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>13748.8051151</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>15827.7252151</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>15515.2735151</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>15515.2735151</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>15691.7120151</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>15580.14772435</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>16118.50399405</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>16362.09529405</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>15901.30189405001</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>15376.00689405001</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>16022.49239405001</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>11336.53489405001</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>10534.96189405001</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>10501.13369405001</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>8855.756994050007</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>9318.880894050008</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>7808.680894050008</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>7858.380794050007</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>5547.514794050007</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>5747.258894050007</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>6926.322094050007</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>8583.646394050007</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>7249.646394050007</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>7249.646394050007</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>7084.827994050007</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>7252.796494050007</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>5652.261994050007</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>5875.868094050007</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>5673.173994050007</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>6758.110294050008</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>6773.157894050008</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>4183.170694050008</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>4183.170694050008</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>3783.823394050008</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>3762.865094050008</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>3662.865094050008</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>3662.865094050008</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>3662.865094050008</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>6919.713694050008</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>6919.713694050008</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -13321,7 +13321,7 @@
         <v>-28147.08380581</v>
       </c>
       <c r="H392" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -13354,7 +13354,7 @@
         <v>-22449.17030581</v>
       </c>
       <c r="H393" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -13387,7 +13387,7 @@
         <v>-17183.38730581</v>
       </c>
       <c r="H394" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -13420,7 +13420,7 @@
         <v>-17183.38730581</v>
       </c>
       <c r="H395" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -13453,7 +13453,7 @@
         <v>-21808.35360581</v>
       </c>
       <c r="H396" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -13486,7 +13486,7 @@
         <v>-24982.30660581</v>
       </c>
       <c r="H397" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -13519,7 +13519,7 @@
         <v>-25266.30660581</v>
       </c>
       <c r="H398" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -13552,7 +13552,7 @@
         <v>-25207.61340581</v>
       </c>
       <c r="H399" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -13585,7 +13585,7 @@
         <v>-25207.61340581</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -13618,7 +13618,7 @@
         <v>-25544.82360581</v>
       </c>
       <c r="H401" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -15532,11 +15532,17 @@
         <v>-42360.91338409999</v>
       </c>
       <c r="H459" t="n">
-        <v>0</v>
-      </c>
-      <c r="I459" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I459" t="n">
+        <v>2191</v>
+      </c>
       <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr"/>
+      <c r="K459" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -15569,7 +15575,11 @@
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr"/>
+      <c r="K460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -15602,7 +15612,11 @@
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr"/>
+      <c r="K461" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -15635,7 +15649,11 @@
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr"/>
+      <c r="K462" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -15668,7 +15686,11 @@
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr"/>
+      <c r="K463" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -15701,7 +15723,11 @@
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr"/>
+      <c r="K464" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -15734,7 +15760,11 @@
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr"/>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -15767,7 +15797,11 @@
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr"/>
+      <c r="K466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -15800,7 +15834,11 @@
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr"/>
+      <c r="K467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -15833,7 +15871,11 @@
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr"/>
+      <c r="K468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -15866,7 +15908,11 @@
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr"/>
+      <c r="K469" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -15895,11 +15941,17 @@
         <v>-45013.37528409999</v>
       </c>
       <c r="H470" t="n">
-        <v>0</v>
-      </c>
-      <c r="I470" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I470" t="n">
+        <v>2184</v>
+      </c>
       <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr"/>
+      <c r="K470" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -15928,11 +15980,17 @@
         <v>-44763.37528409999</v>
       </c>
       <c r="H471" t="n">
-        <v>0</v>
-      </c>
-      <c r="I471" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I471" t="n">
+        <v>2176</v>
+      </c>
       <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr"/>
+      <c r="K471" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -15961,11 +16019,17 @@
         <v>-45333.40648409999</v>
       </c>
       <c r="H472" t="n">
-        <v>0</v>
-      </c>
-      <c r="I472" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I472" t="n">
+        <v>2177</v>
+      </c>
       <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr"/>
+      <c r="K472" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -15994,11 +16058,17 @@
         <v>-40622.94668409999</v>
       </c>
       <c r="H473" t="n">
-        <v>0</v>
-      </c>
-      <c r="I473" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I473" t="n">
+        <v>2175</v>
+      </c>
       <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr"/>
+      <c r="K473" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -16027,11 +16097,17 @@
         <v>-40622.94668409999</v>
       </c>
       <c r="H474" t="n">
-        <v>0</v>
-      </c>
-      <c r="I474" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I474" t="n">
+        <v>2184</v>
+      </c>
       <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr"/>
+      <c r="K474" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -16060,11 +16136,17 @@
         <v>-40622.94668409999</v>
       </c>
       <c r="H475" t="n">
-        <v>0</v>
-      </c>
-      <c r="I475" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I475" t="n">
+        <v>2184</v>
+      </c>
       <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr"/>
+      <c r="K475" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -16097,7 +16179,11 @@
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr"/>
+      <c r="K476" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -16126,11 +16212,17 @@
         <v>-40725.06418409999</v>
       </c>
       <c r="H477" t="n">
-        <v>0</v>
-      </c>
-      <c r="I477" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I477" t="n">
+        <v>2184</v>
+      </c>
       <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr"/>
+      <c r="K477" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -16159,11 +16251,17 @@
         <v>-40725.06418409999</v>
       </c>
       <c r="H478" t="n">
-        <v>0</v>
-      </c>
-      <c r="I478" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I478" t="n">
+        <v>2180</v>
+      </c>
       <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr"/>
+      <c r="K478" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -16192,11 +16290,17 @@
         <v>-40703.71268409999</v>
       </c>
       <c r="H479" t="n">
-        <v>0</v>
-      </c>
-      <c r="I479" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I479" t="n">
+        <v>2180</v>
+      </c>
       <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr"/>
+      <c r="K479" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -16225,11 +16329,17 @@
         <v>-40803.71268409999</v>
       </c>
       <c r="H480" t="n">
-        <v>0</v>
-      </c>
-      <c r="I480" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I480" t="n">
+        <v>2184</v>
+      </c>
       <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr"/>
+      <c r="K480" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -16258,11 +16368,17 @@
         <v>-40614.69978409999</v>
       </c>
       <c r="H481" t="n">
-        <v>0</v>
-      </c>
-      <c r="I481" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I481" t="n">
+        <v>2183</v>
+      </c>
       <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr"/>
+      <c r="K481" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -16291,11 +16407,17 @@
         <v>-40710.90998409999</v>
       </c>
       <c r="H482" t="n">
-        <v>0</v>
-      </c>
-      <c r="I482" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I482" t="n">
+        <v>2188</v>
+      </c>
       <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr"/>
+      <c r="K482" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -16324,11 +16446,17 @@
         <v>-40710.90998409999</v>
       </c>
       <c r="H483" t="n">
-        <v>0</v>
-      </c>
-      <c r="I483" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I483" t="n">
+        <v>2181</v>
+      </c>
       <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr"/>
+      <c r="K483" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -16357,11 +16485,17 @@
         <v>-40611.90998409999</v>
       </c>
       <c r="H484" t="n">
-        <v>0</v>
-      </c>
-      <c r="I484" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I484" t="n">
+        <v>2181</v>
+      </c>
       <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr"/>
+      <c r="K484" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -16394,7 +16528,11 @@
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr"/>
+      <c r="K485" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -16427,7 +16565,11 @@
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr"/>
+      <c r="K486" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -16460,7 +16602,11 @@
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr"/>
+      <c r="K487" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -16493,7 +16639,11 @@
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr"/>
+      <c r="K488" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -16526,7 +16676,11 @@
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr"/>
+      <c r="K489" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -16559,7 +16713,11 @@
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr"/>
+      <c r="K490" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -16592,7 +16750,11 @@
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr"/>
+      <c r="K491" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -16625,7 +16787,11 @@
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr"/>
+      <c r="K492" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -16658,7 +16824,11 @@
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr"/>
+      <c r="K493" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -16691,7 +16861,11 @@
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr"/>
+      <c r="K494" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -16724,7 +16898,11 @@
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr"/>
+      <c r="K495" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -16757,7 +16935,11 @@
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr"/>
+      <c r="K496" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -16790,7 +16972,11 @@
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr"/>
+      <c r="K497" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -16823,7 +17009,11 @@
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr"/>
+      <c r="K498" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -16856,7 +17046,11 @@
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr"/>
+      <c r="K499" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -16889,7 +17083,11 @@
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr"/>
+      <c r="K500" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -16922,7 +17120,11 @@
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr"/>
+      <c r="K501" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -16955,7 +17157,11 @@
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr"/>
+      <c r="K502" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -16988,7 +17194,11 @@
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
-      <c r="K503" t="inlineStr"/>
+      <c r="K503" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -17021,7 +17231,11 @@
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
-      <c r="K504" t="inlineStr"/>
+      <c r="K504" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -17054,7 +17268,11 @@
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
-      <c r="K505" t="inlineStr"/>
+      <c r="K505" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -17087,7 +17305,11 @@
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr"/>
+      <c r="K506" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -17120,7 +17342,11 @@
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr"/>
+      <c r="K507" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -17153,7 +17379,11 @@
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr"/>
+      <c r="K508" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -17186,7 +17416,11 @@
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
-      <c r="K509" t="inlineStr"/>
+      <c r="K509" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -17219,7 +17453,11 @@
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr"/>
+      <c r="K510" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -17252,7 +17490,11 @@
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
-      <c r="K511" t="inlineStr"/>
+      <c r="K511" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -17285,7 +17527,11 @@
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
-      <c r="K512" t="inlineStr"/>
+      <c r="K512" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -17318,7 +17564,11 @@
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr"/>
+      <c r="K513" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -17351,7 +17601,11 @@
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr"/>
+      <c r="K514" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -17384,7 +17638,11 @@
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
-      <c r="K515" t="inlineStr"/>
+      <c r="K515" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -17417,7 +17675,11 @@
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
-      <c r="K516" t="inlineStr"/>
+      <c r="K516" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -17450,7 +17712,11 @@
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
-      <c r="K517" t="inlineStr"/>
+      <c r="K517" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -17483,7 +17749,11 @@
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr"/>
+      <c r="K518" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -17516,7 +17786,11 @@
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
-      <c r="K519" t="inlineStr"/>
+      <c r="K519" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -17549,7 +17823,11 @@
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
-      <c r="K520" t="inlineStr"/>
+      <c r="K520" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -17582,7 +17860,11 @@
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
-      <c r="K521" t="inlineStr"/>
+      <c r="K521" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -17615,7 +17897,11 @@
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
-      <c r="K522" t="inlineStr"/>
+      <c r="K522" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -17648,7 +17934,11 @@
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
-      <c r="K523" t="inlineStr"/>
+      <c r="K523" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -17681,7 +17971,11 @@
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
-      <c r="K524" t="inlineStr"/>
+      <c r="K524" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -17714,7 +18008,11 @@
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
-      <c r="K525" t="inlineStr"/>
+      <c r="K525" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -17747,7 +18045,11 @@
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
-      <c r="K526" t="inlineStr"/>
+      <c r="K526" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -17780,7 +18082,11 @@
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
-      <c r="K527" t="inlineStr"/>
+      <c r="K527" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -17813,7 +18119,11 @@
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
-      <c r="K528" t="inlineStr"/>
+      <c r="K528" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -17846,7 +18156,11 @@
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
-      <c r="K529" t="inlineStr"/>
+      <c r="K529" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -17879,7 +18193,11 @@
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
-      <c r="K530" t="inlineStr"/>
+      <c r="K530" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -17912,7 +18230,11 @@
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
-      <c r="K531" t="inlineStr"/>
+      <c r="K531" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L531" t="n">
         <v>1</v>
       </c>
@@ -17945,7 +18267,11 @@
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
-      <c r="K532" t="inlineStr"/>
+      <c r="K532" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L532" t="n">
         <v>1</v>
       </c>
@@ -17978,7 +18304,11 @@
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
-      <c r="K533" t="inlineStr"/>
+      <c r="K533" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L533" t="n">
         <v>1</v>
       </c>
@@ -18011,7 +18341,11 @@
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
-      <c r="K534" t="inlineStr"/>
+      <c r="K534" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L534" t="n">
         <v>1</v>
       </c>
@@ -18044,7 +18378,11 @@
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
-      <c r="K535" t="inlineStr"/>
+      <c r="K535" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L535" t="n">
         <v>1</v>
       </c>
@@ -18077,7 +18415,11 @@
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
-      <c r="K536" t="inlineStr"/>
+      <c r="K536" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L536" t="n">
         <v>1</v>
       </c>
@@ -18110,7 +18452,11 @@
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
-      <c r="K537" t="inlineStr"/>
+      <c r="K537" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L537" t="n">
         <v>1</v>
       </c>
@@ -18143,7 +18489,11 @@
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
-      <c r="K538" t="inlineStr"/>
+      <c r="K538" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L538" t="n">
         <v>1</v>
       </c>
@@ -18176,7 +18526,11 @@
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
-      <c r="K539" t="inlineStr"/>
+      <c r="K539" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L539" t="n">
         <v>1</v>
       </c>
@@ -18209,7 +18563,11 @@
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
-      <c r="K540" t="inlineStr"/>
+      <c r="K540" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L540" t="n">
         <v>1</v>
       </c>
@@ -18242,7 +18600,11 @@
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
-      <c r="K541" t="inlineStr"/>
+      <c r="K541" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L541" t="n">
         <v>1</v>
       </c>
@@ -18275,7 +18637,11 @@
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
-      <c r="K542" t="inlineStr"/>
+      <c r="K542" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L542" t="n">
         <v>1</v>
       </c>
@@ -18308,7 +18674,11 @@
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
-      <c r="K543" t="inlineStr"/>
+      <c r="K543" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L543" t="n">
         <v>1</v>
       </c>
@@ -18341,7 +18711,11 @@
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
-      <c r="K544" t="inlineStr"/>
+      <c r="K544" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L544" t="n">
         <v>1</v>
       </c>
@@ -18374,7 +18748,11 @@
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
-      <c r="K545" t="inlineStr"/>
+      <c r="K545" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L545" t="n">
         <v>1</v>
       </c>
@@ -18407,7 +18785,11 @@
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
-      <c r="K546" t="inlineStr"/>
+      <c r="K546" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L546" t="n">
         <v>1</v>
       </c>
@@ -18436,15 +18818,13 @@
         <v>-52779.28768409999</v>
       </c>
       <c r="H547" t="n">
-        <v>1</v>
-      </c>
-      <c r="I547" t="n">
-        <v>2166</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
       <c r="K547" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L547" t="n">
@@ -18475,11 +18855,9 @@
         <v>-52779.28768409999</v>
       </c>
       <c r="H548" t="n">
-        <v>1</v>
-      </c>
-      <c r="I548" t="n">
-        <v>2166</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
       <c r="K548" t="inlineStr">
         <is>
@@ -18514,11 +18892,9 @@
         <v>-52751.57038409999</v>
       </c>
       <c r="H549" t="n">
-        <v>1</v>
-      </c>
-      <c r="I549" t="n">
-        <v>2166</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
       <c r="K549" t="inlineStr">
         <is>
@@ -18553,11 +18929,9 @@
         <v>-53251.57038409999</v>
       </c>
       <c r="H550" t="n">
-        <v>1</v>
-      </c>
-      <c r="I550" t="n">
-        <v>2168</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
       <c r="K550" t="inlineStr">
         <is>
@@ -18592,11 +18966,9 @@
         <v>-53251.57038409999</v>
       </c>
       <c r="H551" t="n">
-        <v>1</v>
-      </c>
-      <c r="I551" t="n">
-        <v>2167</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
       <c r="K551" t="inlineStr">
         <is>
@@ -18631,11 +19003,9 @@
         <v>-54785.35618409999</v>
       </c>
       <c r="H552" t="n">
-        <v>1</v>
-      </c>
-      <c r="I552" t="n">
-        <v>2167</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
       <c r="K552" t="inlineStr">
         <is>
@@ -18670,11 +19040,9 @@
         <v>-54785.35618409999</v>
       </c>
       <c r="H553" t="n">
-        <v>1</v>
-      </c>
-      <c r="I553" t="n">
-        <v>2163</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
       <c r="K553" t="inlineStr">
         <is>
@@ -18709,11 +19077,9 @@
         <v>-54764.35618409999</v>
       </c>
       <c r="H554" t="n">
-        <v>1</v>
-      </c>
-      <c r="I554" t="n">
-        <v>2163</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
       <c r="K554" t="inlineStr">
         <is>
@@ -18748,11 +19114,9 @@
         <v>-54747.53118409999</v>
       </c>
       <c r="H555" t="n">
-        <v>1</v>
-      </c>
-      <c r="I555" t="n">
-        <v>2165</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
       <c r="K555" t="inlineStr">
         <is>
@@ -18787,11 +19151,9 @@
         <v>-54677.64118409999</v>
       </c>
       <c r="H556" t="n">
-        <v>1</v>
-      </c>
-      <c r="I556" t="n">
-        <v>2168</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
       <c r="K556" t="inlineStr">
         <is>
@@ -18826,11 +19188,9 @@
         <v>-54704.66248409999</v>
       </c>
       <c r="H557" t="n">
-        <v>1</v>
-      </c>
-      <c r="I557" t="n">
-        <v>2169</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
       <c r="K557" t="inlineStr">
         <is>
@@ -18865,11 +19225,9 @@
         <v>-54579.2107841</v>
       </c>
       <c r="H558" t="n">
-        <v>1</v>
-      </c>
-      <c r="I558" t="n">
-        <v>2164</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
       <c r="K558" t="inlineStr">
         <is>
@@ -18904,9 +19262,11 @@
         <v>-54521.8621841</v>
       </c>
       <c r="H559" t="n">
-        <v>0</v>
-      </c>
-      <c r="I559" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I559" t="n">
+        <v>2166</v>
+      </c>
       <c r="J559" t="inlineStr"/>
       <c r="K559" t="inlineStr">
         <is>
@@ -18941,9 +19301,11 @@
         <v>-54643.3001841</v>
       </c>
       <c r="H560" t="n">
-        <v>0</v>
-      </c>
-      <c r="I560" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I560" t="n">
+        <v>2170</v>
+      </c>
       <c r="J560" t="inlineStr"/>
       <c r="K560" t="inlineStr">
         <is>
@@ -19030,6 +19392,6 @@
       <c r="M562" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-24 BackTest QTUM.xlsx
+++ b/BackTest/2020-01-24 BackTest QTUM.xlsx
@@ -451,7 +451,7 @@
         <v>8613.104300000003</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>8369.732800000003</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>8500.724800000004</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>8391.480700000004</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>8573.027500000004</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>8514.097500000003</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>8772.162500000004</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>8711.886501760004</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>8523.160301760005</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>8523.160301760005</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>4738.078301760004</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>4934.478301760004</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>5260.060001760004</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>5165.242601760004</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>5225.242601760004</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>5228.556001760004</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>7355.559801760004</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>7355.559801760004</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>7355.559801760004</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>7007.589501760004</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>6807.589501760004</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>14561.28655382</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>14761.28655382</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>14761.28655382</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>14761.28655382</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>15634.77485382</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>15634.77485382</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>15208.77485382</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>15208.77485382</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>15208.77485382</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>15208.77485382</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>15149.78075382</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>15130.81665382</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>15130.81665382</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>14869.81665382</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>14429.30215382</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>14695.48435382</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>14694.48435382</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>16710.40935382</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>14704.55035382</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>14704.55035382</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>14704.55035382</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>14478.63555382</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>14335.78125382</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>14455.31415382</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>14432.31415382</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>14472.81415382</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>14586.51415382</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>14586.51415382</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -13321,7 +13321,7 @@
         <v>-28147.08380581</v>
       </c>
       <c r="H392" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -13354,7 +13354,7 @@
         <v>-22449.17030581</v>
       </c>
       <c r="H393" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -13387,7 +13387,7 @@
         <v>-17183.38730581</v>
       </c>
       <c r="H394" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -13420,7 +13420,7 @@
         <v>-17183.38730581</v>
       </c>
       <c r="H395" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -13453,7 +13453,7 @@
         <v>-21808.35360581</v>
       </c>
       <c r="H396" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -13486,7 +13486,7 @@
         <v>-24982.30660581</v>
       </c>
       <c r="H397" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -13519,7 +13519,7 @@
         <v>-25266.30660581</v>
       </c>
       <c r="H398" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -13552,7 +13552,7 @@
         <v>-25207.61340581</v>
       </c>
       <c r="H399" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -13585,7 +13585,7 @@
         <v>-25207.61340581</v>
       </c>
       <c r="H400" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -13618,7 +13618,7 @@
         <v>-25544.82360581</v>
       </c>
       <c r="H401" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -15532,17 +15532,11 @@
         <v>-42360.91338409999</v>
       </c>
       <c r="H459" t="n">
-        <v>1</v>
-      </c>
-      <c r="I459" t="n">
-        <v>2191</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K459" t="inlineStr"/>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -15575,11 +15569,7 @@
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K460" t="inlineStr"/>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -15612,11 +15602,7 @@
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K461" t="inlineStr"/>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -15649,11 +15635,7 @@
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K462" t="inlineStr"/>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -15686,11 +15668,7 @@
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K463" t="inlineStr"/>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -15723,11 +15701,7 @@
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K464" t="inlineStr"/>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -15760,11 +15734,7 @@
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K465" t="inlineStr"/>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -15797,11 +15767,7 @@
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K466" t="inlineStr"/>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -15834,11 +15800,7 @@
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K467" t="inlineStr"/>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -15871,11 +15833,7 @@
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K468" t="inlineStr"/>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -15908,11 +15866,7 @@
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K469" t="inlineStr"/>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -15941,17 +15895,11 @@
         <v>-45013.37528409999</v>
       </c>
       <c r="H470" t="n">
-        <v>1</v>
-      </c>
-      <c r="I470" t="n">
-        <v>2184</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K470" t="inlineStr"/>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -15980,17 +15928,11 @@
         <v>-44763.37528409999</v>
       </c>
       <c r="H471" t="n">
-        <v>1</v>
-      </c>
-      <c r="I471" t="n">
-        <v>2176</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K471" t="inlineStr"/>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -16019,17 +15961,11 @@
         <v>-45333.40648409999</v>
       </c>
       <c r="H472" t="n">
-        <v>1</v>
-      </c>
-      <c r="I472" t="n">
-        <v>2177</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K472" t="inlineStr"/>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -16058,17 +15994,11 @@
         <v>-40622.94668409999</v>
       </c>
       <c r="H473" t="n">
-        <v>1</v>
-      </c>
-      <c r="I473" t="n">
-        <v>2175</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K473" t="inlineStr"/>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -16097,17 +16027,11 @@
         <v>-40622.94668409999</v>
       </c>
       <c r="H474" t="n">
-        <v>1</v>
-      </c>
-      <c r="I474" t="n">
-        <v>2184</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K474" t="inlineStr"/>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -16136,17 +16060,11 @@
         <v>-40622.94668409999</v>
       </c>
       <c r="H475" t="n">
-        <v>1</v>
-      </c>
-      <c r="I475" t="n">
-        <v>2184</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K475" t="inlineStr"/>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -16179,11 +16097,7 @@
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K476" t="inlineStr"/>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -16212,17 +16126,11 @@
         <v>-40725.06418409999</v>
       </c>
       <c r="H477" t="n">
-        <v>1</v>
-      </c>
-      <c r="I477" t="n">
-        <v>2184</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K477" t="inlineStr"/>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -16251,17 +16159,11 @@
         <v>-40725.06418409999</v>
       </c>
       <c r="H478" t="n">
-        <v>1</v>
-      </c>
-      <c r="I478" t="n">
-        <v>2180</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K478" t="inlineStr"/>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -16290,17 +16192,11 @@
         <v>-40703.71268409999</v>
       </c>
       <c r="H479" t="n">
-        <v>1</v>
-      </c>
-      <c r="I479" t="n">
-        <v>2180</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K479" t="inlineStr"/>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -16329,17 +16225,11 @@
         <v>-40803.71268409999</v>
       </c>
       <c r="H480" t="n">
-        <v>1</v>
-      </c>
-      <c r="I480" t="n">
-        <v>2184</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K480" t="inlineStr"/>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -16368,17 +16258,11 @@
         <v>-40614.69978409999</v>
       </c>
       <c r="H481" t="n">
-        <v>1</v>
-      </c>
-      <c r="I481" t="n">
-        <v>2183</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K481" t="inlineStr"/>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -16407,17 +16291,11 @@
         <v>-40710.90998409999</v>
       </c>
       <c r="H482" t="n">
-        <v>1</v>
-      </c>
-      <c r="I482" t="n">
-        <v>2188</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K482" t="inlineStr"/>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -16446,17 +16324,11 @@
         <v>-40710.90998409999</v>
       </c>
       <c r="H483" t="n">
-        <v>1</v>
-      </c>
-      <c r="I483" t="n">
-        <v>2181</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K483" t="inlineStr"/>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -16485,17 +16357,11 @@
         <v>-40611.90998409999</v>
       </c>
       <c r="H484" t="n">
-        <v>1</v>
-      </c>
-      <c r="I484" t="n">
-        <v>2181</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K484" t="inlineStr"/>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -16528,11 +16394,7 @@
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K485" t="inlineStr"/>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -16565,11 +16427,7 @@
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K486" t="inlineStr"/>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -16602,11 +16460,7 @@
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K487" t="inlineStr"/>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -16639,11 +16493,7 @@
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K488" t="inlineStr"/>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -16676,11 +16526,7 @@
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K489" t="inlineStr"/>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -16713,11 +16559,7 @@
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K490" t="inlineStr"/>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -16750,11 +16592,7 @@
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K491" t="inlineStr"/>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -16787,11 +16625,7 @@
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K492" t="inlineStr"/>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -16824,11 +16658,7 @@
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K493" t="inlineStr"/>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -16861,11 +16691,7 @@
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K494" t="inlineStr"/>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -16898,11 +16724,7 @@
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K495" t="inlineStr"/>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -16935,11 +16757,7 @@
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K496" t="inlineStr"/>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -16972,11 +16790,7 @@
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K497" t="inlineStr"/>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -17009,11 +16823,7 @@
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K498" t="inlineStr"/>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -17046,11 +16856,7 @@
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K499" t="inlineStr"/>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -17083,11 +16889,7 @@
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K500" t="inlineStr"/>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -17120,11 +16922,7 @@
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K501" t="inlineStr"/>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -17157,11 +16955,7 @@
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K502" t="inlineStr"/>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -17194,11 +16988,7 @@
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
-      <c r="K503" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K503" t="inlineStr"/>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -17231,11 +17021,7 @@
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
-      <c r="K504" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K504" t="inlineStr"/>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -17268,11 +17054,7 @@
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
-      <c r="K505" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K505" t="inlineStr"/>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -17305,11 +17087,7 @@
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K506" t="inlineStr"/>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -17342,11 +17120,7 @@
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K507" t="inlineStr"/>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -17379,11 +17153,7 @@
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K508" t="inlineStr"/>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -17416,11 +17186,7 @@
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
-      <c r="K509" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K509" t="inlineStr"/>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -17453,11 +17219,7 @@
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K510" t="inlineStr"/>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -17490,11 +17252,7 @@
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
-      <c r="K511" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K511" t="inlineStr"/>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -17527,11 +17285,7 @@
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
-      <c r="K512" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K512" t="inlineStr"/>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -17564,11 +17318,7 @@
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K513" t="inlineStr"/>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -17601,11 +17351,7 @@
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K514" t="inlineStr"/>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -17638,11 +17384,7 @@
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
-      <c r="K515" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K515" t="inlineStr"/>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -17675,11 +17417,7 @@
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
-      <c r="K516" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K516" t="inlineStr"/>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -17712,11 +17450,7 @@
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
-      <c r="K517" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K517" t="inlineStr"/>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -17749,11 +17483,7 @@
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K518" t="inlineStr"/>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -17786,11 +17516,7 @@
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
-      <c r="K519" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K519" t="inlineStr"/>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -17823,11 +17549,7 @@
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
-      <c r="K520" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K520" t="inlineStr"/>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -17860,11 +17582,7 @@
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
-      <c r="K521" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K521" t="inlineStr"/>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -17897,11 +17615,7 @@
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
-      <c r="K522" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K522" t="inlineStr"/>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -17934,11 +17648,7 @@
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
-      <c r="K523" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K523" t="inlineStr"/>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -17971,11 +17681,7 @@
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
-      <c r="K524" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K524" t="inlineStr"/>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -18008,11 +17714,7 @@
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
-      <c r="K525" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K525" t="inlineStr"/>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -18045,11 +17747,7 @@
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
-      <c r="K526" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K526" t="inlineStr"/>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -18082,11 +17780,7 @@
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
-      <c r="K527" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K527" t="inlineStr"/>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -18119,11 +17813,7 @@
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
-      <c r="K528" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K528" t="inlineStr"/>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -18156,11 +17846,7 @@
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
-      <c r="K529" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K529" t="inlineStr"/>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -18193,11 +17879,7 @@
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
-      <c r="K530" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K530" t="inlineStr"/>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -18230,11 +17912,7 @@
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
-      <c r="K531" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K531" t="inlineStr"/>
       <c r="L531" t="n">
         <v>1</v>
       </c>
@@ -18267,11 +17945,7 @@
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
-      <c r="K532" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K532" t="inlineStr"/>
       <c r="L532" t="n">
         <v>1</v>
       </c>
@@ -18304,11 +17978,7 @@
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
-      <c r="K533" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K533" t="inlineStr"/>
       <c r="L533" t="n">
         <v>1</v>
       </c>
@@ -18341,11 +18011,7 @@
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
-      <c r="K534" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K534" t="inlineStr"/>
       <c r="L534" t="n">
         <v>1</v>
       </c>
@@ -18378,11 +18044,7 @@
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
-      <c r="K535" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K535" t="inlineStr"/>
       <c r="L535" t="n">
         <v>1</v>
       </c>
@@ -18415,11 +18077,7 @@
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
-      <c r="K536" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K536" t="inlineStr"/>
       <c r="L536" t="n">
         <v>1</v>
       </c>
@@ -18452,11 +18110,7 @@
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
-      <c r="K537" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K537" t="inlineStr"/>
       <c r="L537" t="n">
         <v>1</v>
       </c>
@@ -18489,11 +18143,7 @@
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
-      <c r="K538" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K538" t="inlineStr"/>
       <c r="L538" t="n">
         <v>1</v>
       </c>
@@ -18526,11 +18176,7 @@
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
-      <c r="K539" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K539" t="inlineStr"/>
       <c r="L539" t="n">
         <v>1</v>
       </c>
@@ -18563,11 +18209,7 @@
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
-      <c r="K540" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K540" t="inlineStr"/>
       <c r="L540" t="n">
         <v>1</v>
       </c>
@@ -18600,11 +18242,7 @@
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
-      <c r="K541" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K541" t="inlineStr"/>
       <c r="L541" t="n">
         <v>1</v>
       </c>
@@ -18637,11 +18275,7 @@
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
-      <c r="K542" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K542" t="inlineStr"/>
       <c r="L542" t="n">
         <v>1</v>
       </c>
@@ -18674,11 +18308,7 @@
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
-      <c r="K543" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K543" t="inlineStr"/>
       <c r="L543" t="n">
         <v>1</v>
       </c>
@@ -18711,11 +18341,7 @@
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
-      <c r="K544" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K544" t="inlineStr"/>
       <c r="L544" t="n">
         <v>1</v>
       </c>
@@ -18748,11 +18374,7 @@
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
-      <c r="K545" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K545" t="inlineStr"/>
       <c r="L545" t="n">
         <v>1</v>
       </c>
@@ -18785,11 +18407,7 @@
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
-      <c r="K546" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K546" t="inlineStr"/>
       <c r="L546" t="n">
         <v>1</v>
       </c>
@@ -18822,11 +18440,7 @@
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
-      <c r="K547" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K547" t="inlineStr"/>
       <c r="L547" t="n">
         <v>1</v>
       </c>
@@ -18859,11 +18473,7 @@
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
-      <c r="K548" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K548" t="inlineStr"/>
       <c r="L548" t="n">
         <v>1</v>
       </c>
@@ -18896,11 +18506,7 @@
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
-      <c r="K549" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K549" t="inlineStr"/>
       <c r="L549" t="n">
         <v>1</v>
       </c>
@@ -18933,11 +18539,7 @@
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
-      <c r="K550" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K550" t="inlineStr"/>
       <c r="L550" t="n">
         <v>1</v>
       </c>
@@ -18970,11 +18572,7 @@
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
-      <c r="K551" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K551" t="inlineStr"/>
       <c r="L551" t="n">
         <v>1</v>
       </c>
@@ -19007,11 +18605,7 @@
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
-      <c r="K552" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K552" t="inlineStr"/>
       <c r="L552" t="n">
         <v>1</v>
       </c>
@@ -19044,11 +18638,7 @@
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
-      <c r="K553" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K553" t="inlineStr"/>
       <c r="L553" t="n">
         <v>1</v>
       </c>
@@ -19077,15 +18667,15 @@
         <v>-54764.35618409999</v>
       </c>
       <c r="H554" t="n">
-        <v>0</v>
-      </c>
-      <c r="I554" t="inlineStr"/>
-      <c r="J554" t="inlineStr"/>
-      <c r="K554" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I554" t="n">
+        <v>2163</v>
+      </c>
+      <c r="J554" t="n">
+        <v>2163</v>
+      </c>
+      <c r="K554" t="inlineStr"/>
       <c r="L554" t="n">
         <v>1</v>
       </c>
@@ -19114,13 +18704,17 @@
         <v>-54747.53118409999</v>
       </c>
       <c r="H555" t="n">
-        <v>0</v>
-      </c>
-      <c r="I555" t="inlineStr"/>
-      <c r="J555" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I555" t="n">
+        <v>2165</v>
+      </c>
+      <c r="J555" t="n">
+        <v>2163</v>
+      </c>
       <c r="K555" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L555" t="n">
@@ -19151,13 +18745,17 @@
         <v>-54677.64118409999</v>
       </c>
       <c r="H556" t="n">
-        <v>0</v>
-      </c>
-      <c r="I556" t="inlineStr"/>
-      <c r="J556" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I556" t="n">
+        <v>2168</v>
+      </c>
+      <c r="J556" t="n">
+        <v>2163</v>
+      </c>
       <c r="K556" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L556" t="n">
@@ -19192,11 +18790,7 @@
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
-      <c r="K557" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K557" t="inlineStr"/>
       <c r="L557" t="n">
         <v>1</v>
       </c>
@@ -19229,11 +18823,7 @@
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
-      <c r="K558" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K558" t="inlineStr"/>
       <c r="L558" t="n">
         <v>1</v>
       </c>
@@ -19267,12 +18857,10 @@
       <c r="I559" t="n">
         <v>2166</v>
       </c>
-      <c r="J559" t="inlineStr"/>
-      <c r="K559" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J559" t="n">
+        <v>2166</v>
+      </c>
+      <c r="K559" t="inlineStr"/>
       <c r="L559" t="n">
         <v>1</v>
       </c>
@@ -19306,10 +18894,12 @@
       <c r="I560" t="n">
         <v>2170</v>
       </c>
-      <c r="J560" t="inlineStr"/>
+      <c r="J560" t="n">
+        <v>2166</v>
+      </c>
       <c r="K560" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L560" t="n">
@@ -19340,13 +18930,17 @@
         <v>-54544.89096752</v>
       </c>
       <c r="H561" t="n">
-        <v>0</v>
-      </c>
-      <c r="I561" t="inlineStr"/>
-      <c r="J561" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I561" t="n">
+        <v>2169</v>
+      </c>
+      <c r="J561" t="n">
+        <v>2166</v>
+      </c>
       <c r="K561" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L561" t="n">
@@ -19377,15 +18971,15 @@
         <v>-54819.24156752</v>
       </c>
       <c r="H562" t="n">
-        <v>0</v>
-      </c>
-      <c r="I562" t="inlineStr"/>
-      <c r="J562" t="inlineStr"/>
-      <c r="K562" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I562" t="n">
+        <v>2170</v>
+      </c>
+      <c r="J562" t="n">
+        <v>2170</v>
+      </c>
+      <c r="K562" t="inlineStr"/>
       <c r="L562" t="n">
         <v>1</v>
       </c>
